--- a/biology/Zoologie/Chrysis_gribodoi/Chrysis_gribodoi.xlsx
+++ b/biology/Zoologie/Chrysis_gribodoi/Chrysis_gribodoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chrysis gribodoi est une espèce d’insectes hyménoptères parasites. C'est une « guêpe coucou » de la famille des Chrysididae et du genre Chrysis[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysis gribodoi est une espèce d’insectes hyménoptères parasites. C'est une « guêpe coucou » de la famille des Chrysididae et du genre Chrysis.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce mesure de 4,5 à 8 millimètres[2]. Elle fait partie d'un groupe d'espèces difficiles à identifier.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce mesure de 4,5 à 8 millimètres. Elle fait partie d'un groupe d'espèces difficiles à identifier.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commune en Europe méditerranéenne[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Commune en Europe méditerranéenne.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (10 janvier 2024)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (10 janvier 2024) :
 Chrysis gribodoi cratomorpha Linsenmaier, 1968
 Chrysis gribodoi gribodoi Abeille de Perrin, 1877
 Chrysis gribodoi spilota Linsenmaier, 1951</t>
@@ -606,9 +624,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Chrysis gribodoi Abeille de Perrin, 1877[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Chrysis gribodoi Abeille de Perrin, 1877.
 </t>
         </is>
       </c>
